--- a/pred_ohlcv/54_21/2020-01-13 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 RNT ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-838958.9030459493</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-838958.9030459493</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-674313.9798459493</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-394727.8596459493</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-456549.2488459492</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-430593.6079459492</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-403766.3101459492</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-379717.2101459493</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-390371.2101459493</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-345489.2624459493</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-345489.2624459493</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-315612.1990459493</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-315782.1990459493</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-315685.8865459493</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-213642.6763459494</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-142642.3319459494</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-163741.7679459493</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-230038.8332459494</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-326475.7142277675</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-347102.5323277675</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-477359.7773277676</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1045747.954927767</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1085595.709927768</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-957869.2705277674</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 RNT ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-838958.9030459493</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-838958.9030459493</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-674313.9798459493</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-456549.2488459492</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-403766.3101459492</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-379717.2101459493</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-390371.2101459493</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-345489.2624459493</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-345489.2624459493</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-315612.1990459493</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-315782.1990459493</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-315685.8865459493</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-213642.6763459494</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-142642.3319459494</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-142642.3319459494</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-163741.7679459493</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-230038.8332459494</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-347102.5323277675</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-477359.7773277676</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1045747.954927767</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1085595.709927768</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-945863.5209277674</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-965673.5209277674</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-960054.1015277674</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
